--- a/Debugg Piotr/MCBXFB_PP-Piotr-Crosscheck_Inner_Iron_600_20220519_104910/Roxie_vs_MM_MiddlePoint MCBXFB_PP-Piotr-Crosscheck_Inner_Iron_600_20220519_104910.xlsx
+++ b/Debugg Piotr/MCBXFB_PP-Piotr-Crosscheck_Inner_Iron_600_20220519_104910/Roxie_vs_MM_MiddlePoint MCBXFB_PP-Piotr-Crosscheck_Inner_Iron_600_20220519_104910.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Roxie</t>
   </si>
   <si>
     <t>MM</t>
+  </si>
+  <si>
+    <t>Shim</t>
   </si>
   <si>
     <t>B1</t>
@@ -467,23 +470,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>10000</v>
@@ -491,10 +497,13 @@
       <c r="C2">
         <v>-0.006816</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>-0.000342</v>
@@ -502,54 +511,69 @@
       <c r="C3">
         <v>0.5180900000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>-13.010627</v>
       </c>
       <c r="C4">
-        <v>-7.946626</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-7.94663</v>
+      </c>
+      <c r="D4">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>-0.000777</v>
       </c>
       <c r="C5">
-        <v>0.564377</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.564376</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>0.296514</v>
       </c>
       <c r="C6">
-        <v>-6.388805</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-6.388807</v>
+      </c>
+      <c r="D6">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>-4.2E-05</v>
       </c>
       <c r="C7">
-        <v>0.325241</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.325242</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>1.776196</v>
@@ -557,10 +581,13 @@
       <c r="C8">
         <v>0.596372</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>1E-06</v>
@@ -568,10 +595,13 @@
       <c r="C9">
         <v>0.073713</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>2.579384</v>
@@ -579,21 +609,27 @@
       <c r="C10">
         <v>1.24012</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>1E-06</v>
       </c>
       <c r="C11">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>3.086787</v>
@@ -601,10 +637,13 @@
       <c r="C12">
         <v>2.968845</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>-0</v>
@@ -612,10 +651,13 @@
       <c r="C13">
         <v>0.01806</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>-1.695289</v>
@@ -623,21 +665,27 @@
       <c r="C14">
         <v>-1.792779</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>-1E-06</v>
       </c>
       <c r="C15">
-        <v>0.0114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.011401</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>0.323907</v>
@@ -645,10 +693,13 @@
       <c r="C16">
         <v>0.249695</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0.512256</v>
@@ -656,32 +707,41 @@
       <c r="C17">
         <v>-0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0.01889</v>
       </c>
       <c r="C18">
-        <v>1.902236</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>1.902237</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0.043943</v>
       </c>
       <c r="C19">
-        <v>-0.50902</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>-0.509019</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>-0.00107</v>
@@ -689,10 +749,13 @@
       <c r="C20">
         <v>1.972372</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>-0.002821</v>
@@ -700,10 +763,13 @@
       <c r="C21">
         <v>-0.145072</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>-0.000198</v>
@@ -711,10 +777,13 @@
       <c r="C22">
         <v>0.747615</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>-0.000444</v>
@@ -722,10 +791,13 @@
       <c r="C23">
         <v>-0.098845</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>1E-06</v>
@@ -733,10 +805,13 @@
       <c r="C24">
         <v>0.175658</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>1.9E-05</v>
@@ -744,21 +819,27 @@
       <c r="C25">
         <v>-0.00317</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26">
         <v>8E-06</v>
       </c>
       <c r="C26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>5E-06</v>
@@ -766,10 +847,13 @@
       <c r="C27">
         <v>0.027954</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <v>-9E-06</v>
@@ -777,10 +861,13 @@
       <c r="C28">
         <v>0.027585</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29">
         <v>1E-06</v>
@@ -788,10 +875,13 @@
       <c r="C29">
         <v>-0.034249</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30">
         <v>-9E-06</v>
@@ -799,16 +889,22 @@
       <c r="C30">
         <v>-0.001332</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <v>-0</v>
       </c>
       <c r="C31">
         <v>0.022743</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
